--- a/S23/EESCL/Timesheets/20230323-buziak-timesheet.xlsx
+++ b/S23/EESCL/Timesheets/20230323-buziak-timesheet.xlsx
@@ -1215,9 +1215,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>997920</xdr:colOff>
+      <xdr:colOff>997560</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1231,7 +1231,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8730720" y="114480"/>
-          <a:ext cx="1415160" cy="806400"/>
+          <a:ext cx="1414800" cy="806040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1254,10 +1254,10 @@
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.13"/>
@@ -1523,7 +1523,9 @@
         <v>0</v>
       </c>
       <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="F10" s="34" t="n">
+        <v>5</v>
+      </c>
       <c r="G10" s="34" t="n">
         <v>0</v>
       </c>
@@ -1531,7 +1533,7 @@
       <c r="I10" s="34"/>
       <c r="J10" s="35" t="n">
         <f aca="false">SUM(C10:I10)</f>
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="L10" s="36"/>
       <c r="M10" s="37"/>
@@ -1767,7 +1769,7 @@
       </c>
       <c r="F19" s="45" t="n">
         <f aca="false">SUM(F10:F18)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G19" s="45" t="n">
         <f aca="false">SUM(G10:G18)</f>
@@ -1783,7 +1785,7 @@
       </c>
       <c r="J19" s="45" t="n">
         <f aca="false">SUM(J10:J18)</f>
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="L19" s="46"/>
       <c r="M19" s="47"/>

--- a/S23/EESCL/Timesheets/20230323-buziak-timesheet.xlsx
+++ b/S23/EESCL/Timesheets/20230323-buziak-timesheet.xlsx
@@ -1215,9 +1215,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>997560</xdr:colOff>
+      <xdr:colOff>997200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1231,7 +1231,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8730720" y="114480"/>
-          <a:ext cx="1414800" cy="806040"/>
+          <a:ext cx="1414440" cy="805680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1254,10 +1254,10 @@
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.13"/>
@@ -1527,13 +1527,13 @@
         <v>5</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
       <c r="J10" s="35" t="n">
         <f aca="false">SUM(C10:I10)</f>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="L10" s="36"/>
       <c r="M10" s="37"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="G19" s="45" t="n">
         <f aca="false">SUM(G10:G18)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H19" s="45" t="n">
         <f aca="false">SUM(H10:H18)</f>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="J19" s="45" t="n">
         <f aca="false">SUM(J10:J18)</f>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="L19" s="46"/>
       <c r="M19" s="47"/>

--- a/S23/EESCL/Timesheets/20230323-buziak-timesheet.xlsx
+++ b/S23/EESCL/Timesheets/20230323-buziak-timesheet.xlsx
@@ -1215,9 +1215,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>997200</xdr:colOff>
+      <xdr:colOff>996480</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1231,7 +1231,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8730720" y="114480"/>
-          <a:ext cx="1414440" cy="805680"/>
+          <a:ext cx="1413720" cy="804960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1254,10 +1254,10 @@
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="S15" activeCellId="0" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.13"/>
@@ -1907,15 +1907,21 @@
       <c r="C23" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="34"/>
+      <c r="D23" s="50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E23" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="34" t="n">
+        <v>1</v>
+      </c>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
       <c r="J23" s="35" t="n">
         <f aca="false">SUM(C23:I23)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L23" s="40"/>
       <c r="M23" s="41"/>
@@ -2112,7 +2118,7 @@
       </c>
       <c r="D32" s="45" t="n">
         <f aca="false">SUM(D23:D31)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E32" s="45" t="n">
         <f aca="false">SUM(E23:E31)</f>
@@ -2120,7 +2126,7 @@
       </c>
       <c r="F32" s="45" t="n">
         <f aca="false">SUM(F23:F31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="45" t="n">
         <f aca="false">SUM(G23:G31)</f>
@@ -2136,7 +2142,7 @@
       </c>
       <c r="J32" s="45" t="n">
         <f aca="false">SUM(J23:J31)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L32" s="46"/>
       <c r="M32" s="47"/>
